--- a/Coffee_Sales.xlsx
+++ b/Coffee_Sales.xlsx
@@ -1,57 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Instant Coffee Sales ($)</t>
-  </si>
-  <si>
-    <t>Filter Coffee Sales ($)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,36 +49,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -383,157 +424,565 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Instant Coffee Sales ($)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Filter Coffee Sales ($)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44227</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2225</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4966</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44255</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4684</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4938</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44316</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2852</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6740</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44347</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6690</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1604</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44408</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5872</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7064</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7035</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44469</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2145</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>44500</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3689</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5334</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3237</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5584</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>44561</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4924</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="B14" t="n">
+        <v>7687</v>
+      </c>
+      <c r="C14" t="n">
+        <v>8135</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5392</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7384</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5703</v>
+      </c>
+      <c r="C16" t="n">
+        <v>7324</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>44681</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5781</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8578</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4039</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5883</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4427</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>44773</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1372</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3770</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B22" t="n">
+        <v>6369</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3822</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4693</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1474</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="B25" t="n">
+        <v>7610</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5414</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>44957</v>
       </c>
-      <c r="B2">
-        <v>3246</v>
-      </c>
-      <c r="C2">
-        <v>4311</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2">
+      <c r="B26" t="n">
+        <v>7824</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3538</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>44985</v>
       </c>
-      <c r="B3">
+      <c r="B27" t="n">
+        <v>2239</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4724</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2649</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45046</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1406</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4341</v>
+      </c>
+      <c r="C30" t="n">
+        <v>7547</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B31" t="n">
+        <v>7976</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B32" t="n">
+        <v>7018</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4121</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3029</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5905</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45199</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3766</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3854</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1899</v>
+      </c>
+      <c r="C35" t="n">
+        <v>5928</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B36" t="n">
+        <v>6282</v>
+      </c>
+      <c r="C36" t="n">
+        <v>6338</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45291</v>
+      </c>
+      <c r="B37" t="n">
+        <v>4086</v>
+      </c>
+      <c r="C37" t="n">
+        <v>3514</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="B38" t="n">
+        <v>7761</v>
+      </c>
+      <c r="C38" t="n">
+        <v>6242</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5357</v>
+      </c>
+      <c r="C39" t="n">
+        <v>5135</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45382</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3914</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3709</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B41" t="n">
+        <v>4373</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1305</v>
+      </c>
+      <c r="C42" t="n">
+        <v>5849</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45473</v>
+      </c>
+      <c r="B43" t="n">
+        <v>5963</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B44" t="n">
+        <v>7892</v>
+      </c>
+      <c r="C44" t="n">
+        <v>8615</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45535</v>
+      </c>
+      <c r="B45" t="n">
+        <v>7703</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B46" t="n">
+        <v>7433</v>
+      </c>
+      <c r="C46" t="n">
+        <v>6488</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1187</v>
+      </c>
+      <c r="C47" t="n">
+        <v>8186</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45626</v>
+      </c>
+      <c r="B48" t="n">
+        <v>7145</v>
+      </c>
+      <c r="C48" t="n">
         <v>2026</v>
       </c>
-      <c r="C3">
-        <v>2297</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2">
-        <v>45016</v>
-      </c>
-      <c r="B4">
-        <v>4043</v>
-      </c>
-      <c r="C4">
-        <v>4190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2">
-        <v>45046</v>
-      </c>
-      <c r="B5">
-        <v>3000</v>
-      </c>
-      <c r="C5">
-        <v>2437</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2">
-        <v>45077</v>
-      </c>
-      <c r="B6">
-        <v>2042</v>
-      </c>
-      <c r="C6">
-        <v>3637</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2">
-        <v>45107</v>
-      </c>
-      <c r="B7">
-        <v>4207</v>
-      </c>
-      <c r="C7">
-        <v>4557</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2">
-        <v>45138</v>
-      </c>
-      <c r="B8">
-        <v>1392</v>
-      </c>
-      <c r="C8">
-        <v>5339</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2">
-        <v>45169</v>
-      </c>
-      <c r="B9">
-        <v>4501</v>
-      </c>
-      <c r="C9">
-        <v>5402</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2">
-        <v>45199</v>
-      </c>
-      <c r="B10">
-        <v>4975</v>
-      </c>
-      <c r="C10">
-        <v>3068</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2">
-        <v>45230</v>
-      </c>
-      <c r="B11">
-        <v>1706</v>
-      </c>
-      <c r="C11">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2">
-        <v>45260</v>
-      </c>
-      <c r="B12">
-        <v>2640</v>
-      </c>
-      <c r="C12">
-        <v>5271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2">
-        <v>45291</v>
-      </c>
-      <c r="B13">
-        <v>2329</v>
-      </c>
-      <c r="C13">
-        <v>4567</v>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1015</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3773</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>